--- a/data/forex_dta.xlsx
+++ b/data/forex_dta.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangyixu/Desktop/GW/currency-exchange/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\britt\OneDrive\Documents\GWU\BBalcom_GW_HW\project_1\currency-exchange\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118976D8-D23D-7448-A5AC-6D82B1D6022D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{118976D8-D23D-7448-A5AC-6D82B1D6022D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{818B8050-2EFC-4D9A-BB8E-5277D05844AA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="604">
   <si>
     <t>Date</t>
   </si>
@@ -1826,6 +1834,12 @@
   </si>
   <si>
     <t>{'CNY': 7.668639}</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -2227,27 +2241,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2257,8 +2277,16 @@
       <c r="C2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="str">
+        <f>MID(B2,6,2)</f>
+        <v>01</v>
+      </c>
+      <c r="E2" t="str">
+        <f>LEFT(B2,4)</f>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2268,8 +2296,12 @@
       <c r="C3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">MID(B3,6,2)</f>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2279,8 +2311,12 @@
       <c r="C4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2290,8 +2326,12 @@
       <c r="C5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2301,8 +2341,12 @@
       <c r="C6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2312,8 +2356,12 @@
       <c r="C7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2323,8 +2371,12 @@
       <c r="C8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2334,8 +2386,12 @@
       <c r="C9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2345,8 +2401,12 @@
       <c r="C10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2356,8 +2416,12 @@
       <c r="C11" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2367,8 +2431,12 @@
       <c r="C12" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2378,8 +2446,12 @@
       <c r="C13" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2389,8 +2461,12 @@
       <c r="C14" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2400,8 +2476,12 @@
       <c r="C15" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2411,8 +2491,12 @@
       <c r="C16" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2422,8 +2506,12 @@
       <c r="C17" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2433,8 +2521,12 @@
       <c r="C18" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2444,8 +2536,12 @@
       <c r="C19" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2455,8 +2551,12 @@
       <c r="C20" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2466,8 +2566,12 @@
       <c r="C21" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2477,8 +2581,12 @@
       <c r="C22" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2488,8 +2596,12 @@
       <c r="C23" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2499,8 +2611,12 @@
       <c r="C24" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2510,8 +2626,12 @@
       <c r="C25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2521,8 +2641,12 @@
       <c r="C26" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2532,8 +2656,12 @@
       <c r="C27" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2543,8 +2671,12 @@
       <c r="C28" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2554,8 +2686,12 @@
       <c r="C29" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2565,8 +2701,12 @@
       <c r="C30" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2576,8 +2716,12 @@
       <c r="C31" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2587,8 +2731,12 @@
       <c r="C32" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2598,8 +2746,12 @@
       <c r="C33" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2609,8 +2761,12 @@
       <c r="C34" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2620,8 +2776,12 @@
       <c r="C35" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2631,8 +2791,12 @@
       <c r="C36" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2642,8 +2806,12 @@
       <c r="C37" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2653,8 +2821,12 @@
       <c r="C38" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2664,8 +2836,12 @@
       <c r="C39" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2675,8 +2851,12 @@
       <c r="C40" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2686,8 +2866,12 @@
       <c r="C41" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2697,8 +2881,12 @@
       <c r="C42" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2708,8 +2896,12 @@
       <c r="C43" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2719,8 +2911,12 @@
       <c r="C44" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2730,8 +2926,12 @@
       <c r="C45" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2741,8 +2941,12 @@
       <c r="C46" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2752,8 +2956,12 @@
       <c r="C47" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2763,8 +2971,12 @@
       <c r="C48" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2774,8 +2986,12 @@
       <c r="C49" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2785,8 +3001,12 @@
       <c r="C50" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2796,8 +3016,12 @@
       <c r="C51" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2807,8 +3031,12 @@
       <c r="C52" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2818,8 +3046,12 @@
       <c r="C53" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2829,8 +3061,12 @@
       <c r="C54" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2840,8 +3076,12 @@
       <c r="C55" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2851,8 +3091,12 @@
       <c r="C56" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2862,8 +3106,12 @@
       <c r="C57" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2873,8 +3121,12 @@
       <c r="C58" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2884,8 +3136,12 @@
       <c r="C59" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2895,8 +3151,12 @@
       <c r="C60" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2906,8 +3166,12 @@
       <c r="C61" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2917,8 +3181,12 @@
       <c r="C62" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2928,8 +3196,12 @@
       <c r="C63" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2939,8 +3211,12 @@
       <c r="C64" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2950,8 +3226,12 @@
       <c r="C65" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2961,8 +3241,12 @@
       <c r="C66" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2972,8 +3256,12 @@
       <c r="C67" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D130" si="1">MID(B67,6,2)</f>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2983,8 +3271,12 @@
       <c r="C68" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2994,8 +3286,12 @@
       <c r="C69" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3005,8 +3301,12 @@
       <c r="C70" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3016,8 +3316,12 @@
       <c r="C71" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3027,8 +3331,12 @@
       <c r="C72" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3038,8 +3346,12 @@
       <c r="C73" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3049,8 +3361,12 @@
       <c r="C74" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3060,8 +3376,12 @@
       <c r="C75" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3071,8 +3391,12 @@
       <c r="C76" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3082,8 +3406,12 @@
       <c r="C77" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3093,8 +3421,12 @@
       <c r="C78" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3104,8 +3436,12 @@
       <c r="C79" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3115,8 +3451,12 @@
       <c r="C80" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3126,8 +3466,12 @@
       <c r="C81" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3137,8 +3481,12 @@
       <c r="C82" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3148,8 +3496,12 @@
       <c r="C83" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3159,8 +3511,12 @@
       <c r="C84" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3170,8 +3526,12 @@
       <c r="C85" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3181,8 +3541,12 @@
       <c r="C86" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3192,8 +3556,12 @@
       <c r="C87" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3203,8 +3571,12 @@
       <c r="C88" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3214,8 +3586,12 @@
       <c r="C89" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3225,8 +3601,12 @@
       <c r="C90" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3236,8 +3616,12 @@
       <c r="C91" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3247,8 +3631,12 @@
       <c r="C92" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3258,8 +3646,12 @@
       <c r="C93" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3269,8 +3661,12 @@
       <c r="C94" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3280,8 +3676,12 @@
       <c r="C95" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3291,8 +3691,12 @@
       <c r="C96" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3302,8 +3706,12 @@
       <c r="C97" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3313,8 +3721,12 @@
       <c r="C98" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3324,8 +3736,12 @@
       <c r="C99" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3335,8 +3751,12 @@
       <c r="C100" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3346,8 +3766,12 @@
       <c r="C101" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3357,8 +3781,12 @@
       <c r="C102" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3368,8 +3796,12 @@
       <c r="C103" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3379,8 +3811,12 @@
       <c r="C104" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3390,8 +3826,12 @@
       <c r="C105" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3401,8 +3841,12 @@
       <c r="C106" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3412,8 +3856,12 @@
       <c r="C107" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3423,8 +3871,12 @@
       <c r="C108" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3434,8 +3886,12 @@
       <c r="C109" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3445,8 +3901,12 @@
       <c r="C110" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3456,8 +3916,12 @@
       <c r="C111" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3467,8 +3931,12 @@
       <c r="C112" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3478,8 +3946,12 @@
       <c r="C113" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3489,8 +3961,12 @@
       <c r="C114" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3500,8 +3976,12 @@
       <c r="C115" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3511,8 +3991,12 @@
       <c r="C116" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3522,8 +4006,12 @@
       <c r="C117" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3533,8 +4021,12 @@
       <c r="C118" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3544,8 +4036,12 @@
       <c r="C119" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3555,8 +4051,12 @@
       <c r="C120" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3566,8 +4066,12 @@
       <c r="C121" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3577,8 +4081,12 @@
       <c r="C122" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3588,8 +4096,12 @@
       <c r="C123" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3599,8 +4111,12 @@
       <c r="C124" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3610,8 +4126,12 @@
       <c r="C125" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3621,8 +4141,12 @@
       <c r="C126" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3632,8 +4156,12 @@
       <c r="C127" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3643,8 +4171,12 @@
       <c r="C128" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3654,8 +4186,12 @@
       <c r="C129" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3665,8 +4201,12 @@
       <c r="C130" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3676,8 +4216,12 @@
       <c r="C131" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D194" si="2">MID(B131,6,2)</f>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3687,8 +4231,12 @@
       <c r="C132" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3698,8 +4246,12 @@
       <c r="C133" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3709,8 +4261,12 @@
       <c r="C134" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3720,8 +4276,12 @@
       <c r="C135" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3731,8 +4291,12 @@
       <c r="C136" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3742,8 +4306,12 @@
       <c r="C137" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3753,8 +4321,12 @@
       <c r="C138" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3764,8 +4336,12 @@
       <c r="C139" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3775,8 +4351,12 @@
       <c r="C140" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3786,8 +4366,12 @@
       <c r="C141" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3797,8 +4381,12 @@
       <c r="C142" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3808,8 +4396,12 @@
       <c r="C143" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3819,8 +4411,12 @@
       <c r="C144" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3830,8 +4426,12 @@
       <c r="C145" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3841,8 +4441,12 @@
       <c r="C146" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3852,8 +4456,12 @@
       <c r="C147" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3863,8 +4471,12 @@
       <c r="C148" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3874,8 +4486,12 @@
       <c r="C149" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3885,8 +4501,12 @@
       <c r="C150" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3896,8 +4516,12 @@
       <c r="C151" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3907,8 +4531,12 @@
       <c r="C152" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3918,8 +4546,12 @@
       <c r="C153" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3929,8 +4561,12 @@
       <c r="C154" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3940,8 +4576,12 @@
       <c r="C155" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3951,8 +4591,12 @@
       <c r="C156" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3962,8 +4606,12 @@
       <c r="C157" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3973,8 +4621,12 @@
       <c r="C158" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3984,8 +4636,12 @@
       <c r="C159" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3995,8 +4651,12 @@
       <c r="C160" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4006,8 +4666,12 @@
       <c r="C161" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4017,8 +4681,12 @@
       <c r="C162" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4028,8 +4696,12 @@
       <c r="C163" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4039,8 +4711,12 @@
       <c r="C164" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4050,8 +4726,12 @@
       <c r="C165" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4061,8 +4741,12 @@
       <c r="C166" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4072,8 +4756,12 @@
       <c r="C167" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4083,8 +4771,12 @@
       <c r="C168" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4094,8 +4786,12 @@
       <c r="C169" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4105,8 +4801,12 @@
       <c r="C170" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4116,8 +4816,12 @@
       <c r="C171" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4127,8 +4831,12 @@
       <c r="C172" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4138,8 +4846,12 @@
       <c r="C173" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4149,8 +4861,12 @@
       <c r="C174" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4160,8 +4876,12 @@
       <c r="C175" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4171,8 +4891,12 @@
       <c r="C176" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4182,8 +4906,12 @@
       <c r="C177" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4193,8 +4921,12 @@
       <c r="C178" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4204,8 +4936,12 @@
       <c r="C179" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4215,8 +4951,12 @@
       <c r="C180" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4226,8 +4966,12 @@
       <c r="C181" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4237,8 +4981,12 @@
       <c r="C182" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4248,8 +4996,12 @@
       <c r="C183" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4259,8 +5011,12 @@
       <c r="C184" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4270,8 +5026,12 @@
       <c r="C185" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4281,8 +5041,12 @@
       <c r="C186" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4292,8 +5056,12 @@
       <c r="C187" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4303,8 +5071,12 @@
       <c r="C188" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4314,8 +5086,12 @@
       <c r="C189" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4325,8 +5101,12 @@
       <c r="C190" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D190" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4336,8 +5116,12 @@
       <c r="C191" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4347,8 +5131,12 @@
       <c r="C192" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4358,8 +5146,12 @@
       <c r="C193" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4369,8 +5161,12 @@
       <c r="C194" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4380,8 +5176,12 @@
       <c r="C195" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195" t="str">
+        <f t="shared" ref="D195:D258" si="3">MID(B195,6,2)</f>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4391,8 +5191,12 @@
       <c r="C196" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196" t="str">
+        <f t="shared" si="3"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4402,8 +5206,12 @@
       <c r="C197" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D197" t="str">
+        <f t="shared" si="3"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4413,8 +5221,12 @@
       <c r="C198" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D198" t="str">
+        <f t="shared" si="3"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4424,8 +5236,12 @@
       <c r="C199" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D199" t="str">
+        <f t="shared" si="3"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4435,8 +5251,12 @@
       <c r="C200" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D200" t="str">
+        <f t="shared" si="3"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4446,8 +5266,12 @@
       <c r="C201" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D201" t="str">
+        <f t="shared" si="3"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4457,8 +5281,12 @@
       <c r="C202" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D202" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4468,8 +5296,12 @@
       <c r="C203" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D203" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4479,8 +5311,12 @@
       <c r="C204" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D204" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4490,8 +5326,12 @@
       <c r="C205" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D205" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -4501,8 +5341,12 @@
       <c r="C206" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D206" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -4512,8 +5356,12 @@
       <c r="C207" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D207" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -4523,8 +5371,12 @@
       <c r="C208" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D208" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -4534,8 +5386,12 @@
       <c r="C209" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D209" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -4545,8 +5401,12 @@
       <c r="C210" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D210" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -4556,8 +5416,12 @@
       <c r="C211" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D211" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -4567,8 +5431,12 @@
       <c r="C212" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D212" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -4578,8 +5446,12 @@
       <c r="C213" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D213" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -4589,8 +5461,12 @@
       <c r="C214" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D214" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -4600,8 +5476,12 @@
       <c r="C215" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D215" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -4611,8 +5491,12 @@
       <c r="C216" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D216" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -4622,8 +5506,12 @@
       <c r="C217" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D217" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -4633,8 +5521,12 @@
       <c r="C218" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D218" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -4644,8 +5536,12 @@
       <c r="C219" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D219" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -4655,8 +5551,12 @@
       <c r="C220" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D220" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -4666,8 +5566,12 @@
       <c r="C221" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D221" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -4677,8 +5581,12 @@
       <c r="C222" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D222" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -4688,8 +5596,12 @@
       <c r="C223" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D223" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -4699,8 +5611,12 @@
       <c r="C224" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D224" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -4710,8 +5626,12 @@
       <c r="C225" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D225" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -4721,8 +5641,12 @@
       <c r="C226" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D226" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -4732,8 +5656,12 @@
       <c r="C227" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D227" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -4743,8 +5671,12 @@
       <c r="C228" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D228" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -4754,8 +5686,12 @@
       <c r="C229" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D229" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -4765,8 +5701,12 @@
       <c r="C230" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D230" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -4776,8 +5716,12 @@
       <c r="C231" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D231" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -4787,8 +5731,12 @@
       <c r="C232" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D232" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -4798,8 +5746,12 @@
       <c r="C233" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D233" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -4809,8 +5761,12 @@
       <c r="C234" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D234" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -4820,8 +5776,12 @@
       <c r="C235" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D235" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -4831,8 +5791,12 @@
       <c r="C236" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D236" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -4842,8 +5806,12 @@
       <c r="C237" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D237" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -4853,8 +5821,12 @@
       <c r="C238" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D238" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -4864,8 +5836,12 @@
       <c r="C239" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D239" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -4875,8 +5851,12 @@
       <c r="C240" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D240" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -4886,8 +5866,12 @@
       <c r="C241" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D241" t="str">
+        <f t="shared" si="3"/>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -4897,8 +5881,12 @@
       <c r="C242" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D242" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -4908,8 +5896,12 @@
       <c r="C243" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D243" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -4919,8 +5911,12 @@
       <c r="C244" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D244" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -4930,8 +5926,12 @@
       <c r="C245" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D245" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -4941,8 +5941,12 @@
       <c r="C246" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D246" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -4952,8 +5956,12 @@
       <c r="C247" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D247" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -4963,8 +5971,12 @@
       <c r="C248" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D248" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -4974,8 +5986,12 @@
       <c r="C249" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D249" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -4985,8 +6001,12 @@
       <c r="C250" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D250" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -4996,8 +6016,12 @@
       <c r="C251" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D251" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -5007,8 +6031,12 @@
       <c r="C252" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D252" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -5018,8 +6046,12 @@
       <c r="C253" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D253" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -5029,8 +6061,12 @@
       <c r="C254" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D254" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -5040,8 +6076,12 @@
       <c r="C255" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D255" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -5051,8 +6091,12 @@
       <c r="C256" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D256" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -5062,8 +6106,12 @@
       <c r="C257" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D257" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -5073,8 +6121,12 @@
       <c r="C258" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D258" t="str">
+        <f t="shared" si="3"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -5084,8 +6136,12 @@
       <c r="C259" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D259" t="str">
+        <f t="shared" ref="D259:D322" si="4">MID(B259,6,2)</f>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -5095,8 +6151,12 @@
       <c r="C260" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D260" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -5106,8 +6166,12 @@
       <c r="C261" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D261" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -5117,8 +6181,12 @@
       <c r="C262" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D262" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -5128,8 +6196,12 @@
       <c r="C263" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D263" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -5139,8 +6211,12 @@
       <c r="C264" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D264" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -5150,8 +6226,12 @@
       <c r="C265" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D265" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -5161,8 +6241,12 @@
       <c r="C266" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D266" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -5172,8 +6256,12 @@
       <c r="C267" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D267" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -5183,8 +6271,12 @@
       <c r="C268" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D268" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -5194,8 +6286,12 @@
       <c r="C269" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D269" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -5205,8 +6301,12 @@
       <c r="C270" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D270" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -5216,8 +6316,12 @@
       <c r="C271" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D271" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -5227,8 +6331,12 @@
       <c r="C272" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D272" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -5238,8 +6346,12 @@
       <c r="C273" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D273" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -5249,8 +6361,12 @@
       <c r="C274" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D274" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -5260,8 +6376,12 @@
       <c r="C275" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D275" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -5271,8 +6391,12 @@
       <c r="C276" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D276" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -5282,8 +6406,12 @@
       <c r="C277" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D277" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -5293,8 +6421,12 @@
       <c r="C278" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D278" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -5304,8 +6436,12 @@
       <c r="C279" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D279" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -5315,8 +6451,12 @@
       <c r="C280" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D280" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -5326,8 +6466,12 @@
       <c r="C281" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D281" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -5337,8 +6481,12 @@
       <c r="C282" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D282" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -5348,8 +6496,12 @@
       <c r="C283" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D283" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -5359,8 +6511,12 @@
       <c r="C284" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D284" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -5370,8 +6526,12 @@
       <c r="C285" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D285" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -5381,8 +6541,12 @@
       <c r="C286" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D286" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -5392,8 +6556,12 @@
       <c r="C287" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D287" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -5403,8 +6571,12 @@
       <c r="C288" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D288" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -5414,8 +6586,12 @@
       <c r="C289" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D289" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -5425,8 +6601,12 @@
       <c r="C290" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D290" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -5436,8 +6616,12 @@
       <c r="C291" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D291" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -5447,8 +6631,12 @@
       <c r="C292" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D292" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -5458,8 +6646,12 @@
       <c r="C293" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D293" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -5469,8 +6661,12 @@
       <c r="C294" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D294" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -5480,8 +6676,12 @@
       <c r="C295" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D295" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -5491,8 +6691,12 @@
       <c r="C296" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D296" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -5502,8 +6706,12 @@
       <c r="C297" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D297" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -5513,8 +6721,12 @@
       <c r="C298" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D298" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -5524,8 +6736,12 @@
       <c r="C299" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D299" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -5535,8 +6751,12 @@
       <c r="C300" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D300" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -5546,8 +6766,12 @@
       <c r="C301" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D301" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -5557,8 +6781,12 @@
       <c r="C302" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D302" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -5568,8 +6796,12 @@
       <c r="C303" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D303" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -5579,8 +6811,12 @@
       <c r="C304" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D304" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -5590,8 +6826,12 @@
       <c r="C305" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D305" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -5601,8 +6841,12 @@
       <c r="C306" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D306" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -5612,8 +6856,12 @@
       <c r="C307" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D307" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -5623,8 +6871,12 @@
       <c r="C308" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D308" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -5634,8 +6886,12 @@
       <c r="C309" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D309" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -5645,8 +6901,12 @@
       <c r="C310" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D310" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -5656,8 +6916,12 @@
       <c r="C311" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D311" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -5667,8 +6931,12 @@
       <c r="C312" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D312" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -5678,8 +6946,12 @@
       <c r="C313" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D313" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -5689,8 +6961,12 @@
       <c r="C314" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D314" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -5700,8 +6976,12 @@
       <c r="C315" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D315" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -5711,8 +6991,12 @@
       <c r="C316" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D316" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -5722,8 +7006,12 @@
       <c r="C317" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D317" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -5733,8 +7021,12 @@
       <c r="C318" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D318" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -5744,8 +7036,12 @@
       <c r="C319" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D319" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -5755,8 +7051,12 @@
       <c r="C320" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D320" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -5766,8 +7066,12 @@
       <c r="C321" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D321" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -5777,8 +7081,12 @@
       <c r="C322" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D322" t="str">
+        <f t="shared" si="4"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -5788,8 +7096,12 @@
       <c r="C323" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D323" t="str">
+        <f t="shared" ref="D323:D386" si="5">MID(B323,6,2)</f>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -5799,8 +7111,12 @@
       <c r="C324" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D324" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -5810,8 +7126,12 @@
       <c r="C325" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D325" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -5821,8 +7141,12 @@
       <c r="C326" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D326" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -5832,8 +7156,12 @@
       <c r="C327" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D327" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -5843,8 +7171,12 @@
       <c r="C328" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D328" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -5854,8 +7186,12 @@
       <c r="C329" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D329" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -5865,8 +7201,12 @@
       <c r="C330" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D330" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -5876,8 +7216,12 @@
       <c r="C331" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D331" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -5887,8 +7231,12 @@
       <c r="C332" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D332" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -5898,8 +7246,12 @@
       <c r="C333" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D333" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -5909,8 +7261,12 @@
       <c r="C334" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D334" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -5920,8 +7276,12 @@
       <c r="C335" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D335" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -5931,8 +7291,12 @@
       <c r="C336" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D336" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -5942,8 +7306,12 @@
       <c r="C337" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D337" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -5953,8 +7321,12 @@
       <c r="C338" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D338" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -5964,8 +7336,12 @@
       <c r="C339" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D339" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -5975,8 +7351,12 @@
       <c r="C340" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D340" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -5986,8 +7366,12 @@
       <c r="C341" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D341" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -5997,8 +7381,12 @@
       <c r="C342" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D342" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -6008,8 +7396,12 @@
       <c r="C343" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D343" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -6019,8 +7411,12 @@
       <c r="C344" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D344" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -6030,8 +7426,12 @@
       <c r="C345" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D345" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -6041,8 +7441,12 @@
       <c r="C346" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D346" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -6052,8 +7456,12 @@
       <c r="C347" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D347" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -6063,8 +7471,12 @@
       <c r="C348" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D348" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -6074,8 +7486,12 @@
       <c r="C349" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D349" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -6085,8 +7501,12 @@
       <c r="C350" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D350" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -6096,8 +7516,12 @@
       <c r="C351" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D351" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -6107,8 +7531,12 @@
       <c r="C352" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D352" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -6118,8 +7546,12 @@
       <c r="C353" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D353" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -6129,8 +7561,12 @@
       <c r="C354" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D354" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -6140,8 +7576,12 @@
       <c r="C355" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D355" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -6151,8 +7591,12 @@
       <c r="C356" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D356" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -6162,8 +7606,12 @@
       <c r="C357" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D357" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -6173,8 +7621,12 @@
       <c r="C358" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D358" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -6184,8 +7636,12 @@
       <c r="C359" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D359" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -6195,8 +7651,12 @@
       <c r="C360" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D360" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -6206,8 +7666,12 @@
       <c r="C361" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D361" t="str">
+        <f t="shared" si="5"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -6217,8 +7681,12 @@
       <c r="C362" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D362" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -6228,8 +7696,12 @@
       <c r="C363" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D363" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -6239,8 +7711,12 @@
       <c r="C364" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D364" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -6250,8 +7726,12 @@
       <c r="C365" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D365" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -6261,8 +7741,12 @@
       <c r="C366" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D366" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -6272,8 +7756,12 @@
       <c r="C367" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D367" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -6283,8 +7771,12 @@
       <c r="C368" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D368" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -6294,8 +7786,12 @@
       <c r="C369" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D369" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -6305,8 +7801,12 @@
       <c r="C370" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D370" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -6316,8 +7816,12 @@
       <c r="C371" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D371" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -6327,8 +7831,12 @@
       <c r="C372" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D372" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -6338,8 +7846,12 @@
       <c r="C373" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D373" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -6349,8 +7861,12 @@
       <c r="C374" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D374" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -6360,8 +7876,12 @@
       <c r="C375" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D375" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -6371,8 +7891,12 @@
       <c r="C376" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D376" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -6382,8 +7906,12 @@
       <c r="C377" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D377" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -6393,8 +7921,12 @@
       <c r="C378" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D378" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -6404,8 +7936,12 @@
       <c r="C379" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D379" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -6415,8 +7951,12 @@
       <c r="C380" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D380" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -6426,8 +7966,12 @@
       <c r="C381" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D381" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -6437,8 +7981,12 @@
       <c r="C382" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D382" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -6448,8 +7996,12 @@
       <c r="C383" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D383" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -6459,8 +8011,12 @@
       <c r="C384" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D384" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -6470,8 +8026,12 @@
       <c r="C385" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D385" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -6481,8 +8041,12 @@
       <c r="C386" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D386" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -6492,8 +8056,12 @@
       <c r="C387" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D387" t="str">
+        <f t="shared" ref="D387:D450" si="6">MID(B387,6,2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -6503,8 +8071,12 @@
       <c r="C388" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D388" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -6514,8 +8086,12 @@
       <c r="C389" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D389" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -6525,8 +8101,12 @@
       <c r="C390" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D390" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -6536,8 +8116,12 @@
       <c r="C391" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D391" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -6547,8 +8131,12 @@
       <c r="C392" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D392" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -6558,8 +8146,12 @@
       <c r="C393" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D393" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -6569,8 +8161,12 @@
       <c r="C394" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D394" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -6580,8 +8176,12 @@
       <c r="C395" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D395" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -6591,8 +8191,12 @@
       <c r="C396" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D396" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -6602,8 +8206,12 @@
       <c r="C397" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D397" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -6613,8 +8221,12 @@
       <c r="C398" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D398" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -6624,8 +8236,12 @@
       <c r="C399" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D399" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -6635,8 +8251,12 @@
       <c r="C400" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D400" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -6646,8 +8266,12 @@
       <c r="C401" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D401" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -6657,8 +8281,12 @@
       <c r="C402" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D402" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -6668,8 +8296,12 @@
       <c r="C403" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D403" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -6679,8 +8311,12 @@
       <c r="C404" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D404" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -6690,8 +8326,12 @@
       <c r="C405" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D405" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -6701,8 +8341,12 @@
       <c r="C406" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D406" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -6712,8 +8356,12 @@
       <c r="C407" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D407" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -6723,8 +8371,12 @@
       <c r="C408" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D408" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -6734,8 +8386,12 @@
       <c r="C409" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D409" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -6745,8 +8401,12 @@
       <c r="C410" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D410" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -6756,8 +8416,12 @@
       <c r="C411" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D411" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -6767,8 +8431,12 @@
       <c r="C412" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D412" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -6778,8 +8446,12 @@
       <c r="C413" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D413" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -6789,8 +8461,12 @@
       <c r="C414" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D414" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -6800,8 +8476,12 @@
       <c r="C415" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D415" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -6811,8 +8491,12 @@
       <c r="C416" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D416" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -6822,8 +8506,12 @@
       <c r="C417" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D417" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -6833,8 +8521,12 @@
       <c r="C418" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D418" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -6844,8 +8536,12 @@
       <c r="C419" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D419" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -6855,8 +8551,12 @@
       <c r="C420" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D420" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -6866,8 +8566,12 @@
       <c r="C421" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D421" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -6877,8 +8581,12 @@
       <c r="C422" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D422" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -6888,8 +8596,12 @@
       <c r="C423" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D423" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -6899,8 +8611,12 @@
       <c r="C424" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D424" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -6910,8 +8626,12 @@
       <c r="C425" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D425" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -6921,8 +8641,12 @@
       <c r="C426" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D426" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -6932,8 +8656,12 @@
       <c r="C427" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D427" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -6943,8 +8671,12 @@
       <c r="C428" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D428" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -6954,8 +8686,12 @@
       <c r="C429" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D429" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -6965,8 +8701,12 @@
       <c r="C430" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D430" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -6976,8 +8716,12 @@
       <c r="C431" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D431" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -6987,8 +8731,12 @@
       <c r="C432" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D432" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -6998,8 +8746,12 @@
       <c r="C433" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D433" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -7009,8 +8761,12 @@
       <c r="C434" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D434" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -7020,8 +8776,12 @@
       <c r="C435" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D435" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -7031,8 +8791,12 @@
       <c r="C436" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D436" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -7042,8 +8806,12 @@
       <c r="C437" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D437" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -7053,8 +8821,12 @@
       <c r="C438" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D438" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -7064,8 +8836,12 @@
       <c r="C439" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D439" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -7075,8 +8851,12 @@
       <c r="C440" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D440" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -7086,8 +8866,12 @@
       <c r="C441" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D441" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -7097,8 +8881,12 @@
       <c r="C442" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D442" t="str">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -7108,8 +8896,12 @@
       <c r="C443" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D443" t="str">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -7119,8 +8911,12 @@
       <c r="C444" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D444" t="str">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -7130,8 +8926,12 @@
       <c r="C445" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D445" t="str">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -7141,8 +8941,12 @@
       <c r="C446" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D446" t="str">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -7152,8 +8956,12 @@
       <c r="C447" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D447" t="str">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -7163,8 +8971,12 @@
       <c r="C448" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D448" t="str">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -7174,8 +8986,12 @@
       <c r="C449" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D449" t="str">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -7185,8 +9001,12 @@
       <c r="C450" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D450" t="str">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -7196,8 +9016,12 @@
       <c r="C451" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D451" t="str">
+        <f t="shared" ref="D451:D481" si="7">MID(B451,6,2)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -7207,8 +9031,12 @@
       <c r="C452" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D452" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -7218,8 +9046,12 @@
       <c r="C453" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D453" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -7229,8 +9061,12 @@
       <c r="C454" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D454" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -7240,8 +9076,12 @@
       <c r="C455" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D455" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -7251,8 +9091,12 @@
       <c r="C456" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D456" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -7262,8 +9106,12 @@
       <c r="C457" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D457" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -7273,8 +9121,12 @@
       <c r="C458" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D458" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -7284,8 +9136,12 @@
       <c r="C459" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D459" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -7295,8 +9151,12 @@
       <c r="C460" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D460" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -7306,8 +9166,12 @@
       <c r="C461" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D461" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -7317,8 +9181,12 @@
       <c r="C462" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D462" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -7328,8 +9196,12 @@
       <c r="C463" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D463" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -7339,8 +9211,12 @@
       <c r="C464" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D464" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -7350,8 +9226,12 @@
       <c r="C465" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D465" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -7361,8 +9241,12 @@
       <c r="C466" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D466" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -7372,8 +9256,12 @@
       <c r="C467" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D467" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -7383,8 +9271,12 @@
       <c r="C468" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D468" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -7394,8 +9286,12 @@
       <c r="C469" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D469" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -7405,8 +9301,12 @@
       <c r="C470" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D470" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -7416,8 +9316,12 @@
       <c r="C471" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D471" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -7427,8 +9331,12 @@
       <c r="C472" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D472" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -7438,8 +9346,12 @@
       <c r="C473" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D473" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -7449,8 +9361,12 @@
       <c r="C474" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D474" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -7460,8 +9376,12 @@
       <c r="C475" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D475" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -7471,8 +9391,12 @@
       <c r="C476" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D476" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -7482,8 +9406,12 @@
       <c r="C477" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D477" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -7493,8 +9421,12 @@
       <c r="C478" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D478" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -7504,8 +9436,12 @@
       <c r="C479" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D479" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -7515,8 +9451,12 @@
       <c r="C480" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D480" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -7525,6 +9465,10 @@
       </c>
       <c r="C481" t="s">
         <v>601</v>
+      </c>
+      <c r="D481" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/forex_dta.xlsx
+++ b/data/forex_dta.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\britt\OneDrive\Documents\GWU\BBalcom_GW_HW\project_1\currency-exchange\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{118976D8-D23D-7448-A5AC-6D82B1D6022D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{818B8050-2EFC-4D9A-BB8E-5277D05844AA}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="602">
   <si>
     <t>Date</t>
   </si>
@@ -1834,19 +1820,13 @@
   </si>
   <si>
     <t>{'CNY': 7.668639}</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1909,14 +1889,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1963,7 +1935,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1995,27 +1967,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2047,24 +2001,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2240,34 +2176,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E481"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.68359375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>602</v>
-      </c>
-      <c r="E1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2277,16 +2201,8 @@
       <c r="C2" t="s">
         <v>122</v>
       </c>
-      <c r="D2" t="str">
-        <f>MID(B2,6,2)</f>
-        <v>01</v>
-      </c>
-      <c r="E2" t="str">
-        <f>LEFT(B2,4)</f>
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2296,12 +2212,8 @@
       <c r="C3" t="s">
         <v>123</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">MID(B3,6,2)</f>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2311,12 +2223,8 @@
       <c r="C4" t="s">
         <v>124</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2326,12 +2234,8 @@
       <c r="C5" t="s">
         <v>125</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2341,12 +2245,8 @@
       <c r="C6" t="s">
         <v>126</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2356,12 +2256,8 @@
       <c r="C7" t="s">
         <v>127</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2371,12 +2267,8 @@
       <c r="C8" t="s">
         <v>128</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2386,12 +2278,8 @@
       <c r="C9" t="s">
         <v>129</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2401,12 +2289,8 @@
       <c r="C10" t="s">
         <v>130</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2416,12 +2300,8 @@
       <c r="C11" t="s">
         <v>131</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2431,12 +2311,8 @@
       <c r="C12" t="s">
         <v>132</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2446,12 +2322,8 @@
       <c r="C13" t="s">
         <v>133</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2461,12 +2333,8 @@
       <c r="C14" t="s">
         <v>134</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2476,12 +2344,8 @@
       <c r="C15" t="s">
         <v>135</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2491,12 +2355,8 @@
       <c r="C16" t="s">
         <v>136</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2506,12 +2366,8 @@
       <c r="C17" t="s">
         <v>137</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2521,12 +2377,8 @@
       <c r="C18" t="s">
         <v>138</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2536,12 +2388,8 @@
       <c r="C19" t="s">
         <v>139</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2551,12 +2399,8 @@
       <c r="C20" t="s">
         <v>140</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2566,12 +2410,8 @@
       <c r="C21" t="s">
         <v>141</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2581,12 +2421,8 @@
       <c r="C22" t="s">
         <v>142</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2596,12 +2432,8 @@
       <c r="C23" t="s">
         <v>143</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2611,12 +2443,8 @@
       <c r="C24" t="s">
         <v>144</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2626,12 +2454,8 @@
       <c r="C25" t="s">
         <v>145</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2641,12 +2465,8 @@
       <c r="C26" t="s">
         <v>146</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2656,12 +2476,8 @@
       <c r="C27" t="s">
         <v>147</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2671,12 +2487,8 @@
       <c r="C28" t="s">
         <v>148</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2686,12 +2498,8 @@
       <c r="C29" t="s">
         <v>149</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2701,12 +2509,8 @@
       <c r="C30" t="s">
         <v>150</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2716,12 +2520,8 @@
       <c r="C31" t="s">
         <v>151</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2731,12 +2531,8 @@
       <c r="C32" t="s">
         <v>152</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2746,12 +2542,8 @@
       <c r="C33" t="s">
         <v>153</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2761,12 +2553,8 @@
       <c r="C34" t="s">
         <v>154</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2776,12 +2564,8 @@
       <c r="C35" t="s">
         <v>155</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2791,12 +2575,8 @@
       <c r="C36" t="s">
         <v>156</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2806,12 +2586,8 @@
       <c r="C37" t="s">
         <v>157</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2821,12 +2597,8 @@
       <c r="C38" t="s">
         <v>158</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2836,12 +2608,8 @@
       <c r="C39" t="s">
         <v>159</v>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2851,12 +2619,8 @@
       <c r="C40" t="s">
         <v>160</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2866,12 +2630,8 @@
       <c r="C41" t="s">
         <v>161</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2881,12 +2641,8 @@
       <c r="C42" t="s">
         <v>162</v>
       </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2896,12 +2652,8 @@
       <c r="C43" t="s">
         <v>163</v>
       </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2911,12 +2663,8 @@
       <c r="C44" t="s">
         <v>164</v>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2926,12 +2674,8 @@
       <c r="C45" t="s">
         <v>165</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2941,12 +2685,8 @@
       <c r="C46" t="s">
         <v>166</v>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2956,12 +2696,8 @@
       <c r="C47" t="s">
         <v>167</v>
       </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2971,12 +2707,8 @@
       <c r="C48" t="s">
         <v>168</v>
       </c>
-      <c r="D48" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2986,12 +2718,8 @@
       <c r="C49" t="s">
         <v>169</v>
       </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3001,12 +2729,8 @@
       <c r="C50" t="s">
         <v>170</v>
       </c>
-      <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3016,12 +2740,8 @@
       <c r="C51" t="s">
         <v>171</v>
       </c>
-      <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3031,12 +2751,8 @@
       <c r="C52" t="s">
         <v>172</v>
       </c>
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3046,12 +2762,8 @@
       <c r="C53" t="s">
         <v>173</v>
       </c>
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3061,12 +2773,8 @@
       <c r="C54" t="s">
         <v>174</v>
       </c>
-      <c r="D54" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3076,12 +2784,8 @@
       <c r="C55" t="s">
         <v>175</v>
       </c>
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3091,12 +2795,8 @@
       <c r="C56" t="s">
         <v>176</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3106,12 +2806,8 @@
       <c r="C57" t="s">
         <v>177</v>
       </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3121,12 +2817,8 @@
       <c r="C58" t="s">
         <v>178</v>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3136,12 +2828,8 @@
       <c r="C59" t="s">
         <v>179</v>
       </c>
-      <c r="D59" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3151,12 +2839,8 @@
       <c r="C60" t="s">
         <v>180</v>
       </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3166,12 +2850,8 @@
       <c r="C61" t="s">
         <v>181</v>
       </c>
-      <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3181,12 +2861,8 @@
       <c r="C62" t="s">
         <v>182</v>
       </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3196,12 +2872,8 @@
       <c r="C63" t="s">
         <v>183</v>
       </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3211,12 +2883,8 @@
       <c r="C64" t="s">
         <v>184</v>
       </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3226,12 +2894,8 @@
       <c r="C65" t="s">
         <v>185</v>
       </c>
-      <c r="D65" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3241,12 +2905,8 @@
       <c r="C66" t="s">
         <v>186</v>
       </c>
-      <c r="D66" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3256,12 +2916,8 @@
       <c r="C67" t="s">
         <v>187</v>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:D130" si="1">MID(B67,6,2)</f>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3271,12 +2927,8 @@
       <c r="C68" t="s">
         <v>188</v>
       </c>
-      <c r="D68" t="str">
-        <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3286,12 +2938,8 @@
       <c r="C69" t="s">
         <v>189</v>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3301,12 +2949,8 @@
       <c r="C70" t="s">
         <v>190</v>
       </c>
-      <c r="D70" t="str">
-        <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3316,12 +2960,8 @@
       <c r="C71" t="s">
         <v>191</v>
       </c>
-      <c r="D71" t="str">
-        <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3331,12 +2971,8 @@
       <c r="C72" t="s">
         <v>192</v>
       </c>
-      <c r="D72" t="str">
-        <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3346,12 +2982,8 @@
       <c r="C73" t="s">
         <v>193</v>
       </c>
-      <c r="D73" t="str">
-        <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3361,12 +2993,8 @@
       <c r="C74" t="s">
         <v>194</v>
       </c>
-      <c r="D74" t="str">
-        <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3376,12 +3004,8 @@
       <c r="C75" t="s">
         <v>195</v>
       </c>
-      <c r="D75" t="str">
-        <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3391,12 +3015,8 @@
       <c r="C76" t="s">
         <v>196</v>
       </c>
-      <c r="D76" t="str">
-        <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3406,12 +3026,8 @@
       <c r="C77" t="s">
         <v>197</v>
       </c>
-      <c r="D77" t="str">
-        <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3421,12 +3037,8 @@
       <c r="C78" t="s">
         <v>198</v>
       </c>
-      <c r="D78" t="str">
-        <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3436,12 +3048,8 @@
       <c r="C79" t="s">
         <v>199</v>
       </c>
-      <c r="D79" t="str">
-        <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3451,12 +3059,8 @@
       <c r="C80" t="s">
         <v>200</v>
       </c>
-      <c r="D80" t="str">
-        <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3466,12 +3070,8 @@
       <c r="C81" t="s">
         <v>201</v>
       </c>
-      <c r="D81" t="str">
-        <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3481,12 +3081,8 @@
       <c r="C82" t="s">
         <v>202</v>
       </c>
-      <c r="D82" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3496,12 +3092,8 @@
       <c r="C83" t="s">
         <v>203</v>
       </c>
-      <c r="D83" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3511,12 +3103,8 @@
       <c r="C84" t="s">
         <v>204</v>
       </c>
-      <c r="D84" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3526,12 +3114,8 @@
       <c r="C85" t="s">
         <v>205</v>
       </c>
-      <c r="D85" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3541,12 +3125,8 @@
       <c r="C86" t="s">
         <v>206</v>
       </c>
-      <c r="D86" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3556,12 +3136,8 @@
       <c r="C87" t="s">
         <v>207</v>
       </c>
-      <c r="D87" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3571,12 +3147,8 @@
       <c r="C88" t="s">
         <v>208</v>
       </c>
-      <c r="D88" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3586,12 +3158,8 @@
       <c r="C89" t="s">
         <v>209</v>
       </c>
-      <c r="D89" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3601,12 +3169,8 @@
       <c r="C90" t="s">
         <v>210</v>
       </c>
-      <c r="D90" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3616,12 +3180,8 @@
       <c r="C91" t="s">
         <v>211</v>
       </c>
-      <c r="D91" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3631,12 +3191,8 @@
       <c r="C92" t="s">
         <v>212</v>
       </c>
-      <c r="D92" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3646,12 +3202,8 @@
       <c r="C93" t="s">
         <v>213</v>
       </c>
-      <c r="D93" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3661,12 +3213,8 @@
       <c r="C94" t="s">
         <v>214</v>
       </c>
-      <c r="D94" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3676,12 +3224,8 @@
       <c r="C95" t="s">
         <v>215</v>
       </c>
-      <c r="D95" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3691,12 +3235,8 @@
       <c r="C96" t="s">
         <v>216</v>
       </c>
-      <c r="D96" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3706,12 +3246,8 @@
       <c r="C97" t="s">
         <v>217</v>
       </c>
-      <c r="D97" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3721,12 +3257,8 @@
       <c r="C98" t="s">
         <v>218</v>
       </c>
-      <c r="D98" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3736,12 +3268,8 @@
       <c r="C99" t="s">
         <v>219</v>
       </c>
-      <c r="D99" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3751,12 +3279,8 @@
       <c r="C100" t="s">
         <v>220</v>
       </c>
-      <c r="D100" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3766,12 +3290,8 @@
       <c r="C101" t="s">
         <v>221</v>
       </c>
-      <c r="D101" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3781,12 +3301,8 @@
       <c r="C102" t="s">
         <v>222</v>
       </c>
-      <c r="D102" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3796,12 +3312,8 @@
       <c r="C103" t="s">
         <v>223</v>
       </c>
-      <c r="D103" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3811,12 +3323,8 @@
       <c r="C104" t="s">
         <v>224</v>
       </c>
-      <c r="D104" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3826,12 +3334,8 @@
       <c r="C105" t="s">
         <v>225</v>
       </c>
-      <c r="D105" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3841,12 +3345,8 @@
       <c r="C106" t="s">
         <v>226</v>
       </c>
-      <c r="D106" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3856,12 +3356,8 @@
       <c r="C107" t="s">
         <v>227</v>
       </c>
-      <c r="D107" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3871,12 +3367,8 @@
       <c r="C108" t="s">
         <v>228</v>
       </c>
-      <c r="D108" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3886,12 +3378,8 @@
       <c r="C109" t="s">
         <v>229</v>
       </c>
-      <c r="D109" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3901,12 +3389,8 @@
       <c r="C110" t="s">
         <v>230</v>
       </c>
-      <c r="D110" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3916,12 +3400,8 @@
       <c r="C111" t="s">
         <v>231</v>
       </c>
-      <c r="D111" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3931,12 +3411,8 @@
       <c r="C112" t="s">
         <v>232</v>
       </c>
-      <c r="D112" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3946,12 +3422,8 @@
       <c r="C113" t="s">
         <v>233</v>
       </c>
-      <c r="D113" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3961,12 +3433,8 @@
       <c r="C114" t="s">
         <v>234</v>
       </c>
-      <c r="D114" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3976,12 +3444,8 @@
       <c r="C115" t="s">
         <v>235</v>
       </c>
-      <c r="D115" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3991,12 +3455,8 @@
       <c r="C116" t="s">
         <v>236</v>
       </c>
-      <c r="D116" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -4006,12 +3466,8 @@
       <c r="C117" t="s">
         <v>237</v>
       </c>
-      <c r="D117" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -4021,12 +3477,8 @@
       <c r="C118" t="s">
         <v>238</v>
       </c>
-      <c r="D118" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -4036,12 +3488,8 @@
       <c r="C119" t="s">
         <v>239</v>
       </c>
-      <c r="D119" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -4051,12 +3499,8 @@
       <c r="C120" t="s">
         <v>240</v>
       </c>
-      <c r="D120" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -4066,12 +3510,8 @@
       <c r="C121" t="s">
         <v>241</v>
       </c>
-      <c r="D121" t="str">
-        <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -4081,12 +3521,8 @@
       <c r="C122" t="s">
         <v>242</v>
       </c>
-      <c r="D122" t="str">
-        <f t="shared" si="1"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -4096,12 +3532,8 @@
       <c r="C123" t="s">
         <v>243</v>
       </c>
-      <c r="D123" t="str">
-        <f t="shared" si="1"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -4111,12 +3543,8 @@
       <c r="C124" t="s">
         <v>244</v>
       </c>
-      <c r="D124" t="str">
-        <f t="shared" si="1"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -4126,12 +3554,8 @@
       <c r="C125" t="s">
         <v>245</v>
       </c>
-      <c r="D125" t="str">
-        <f t="shared" si="1"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -4141,12 +3565,8 @@
       <c r="C126" t="s">
         <v>246</v>
       </c>
-      <c r="D126" t="str">
-        <f t="shared" si="1"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -4156,12 +3576,8 @@
       <c r="C127" t="s">
         <v>247</v>
       </c>
-      <c r="D127" t="str">
-        <f t="shared" si="1"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -4171,12 +3587,8 @@
       <c r="C128" t="s">
         <v>248</v>
       </c>
-      <c r="D128" t="str">
-        <f t="shared" si="1"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -4186,12 +3598,8 @@
       <c r="C129" t="s">
         <v>249</v>
       </c>
-      <c r="D129" t="str">
-        <f t="shared" si="1"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -4201,12 +3609,8 @@
       <c r="C130" t="s">
         <v>250</v>
       </c>
-      <c r="D130" t="str">
-        <f t="shared" si="1"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -4216,12 +3620,8 @@
       <c r="C131" t="s">
         <v>251</v>
       </c>
-      <c r="D131" t="str">
-        <f t="shared" ref="D131:D194" si="2">MID(B131,6,2)</f>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -4231,12 +3631,8 @@
       <c r="C132" t="s">
         <v>252</v>
       </c>
-      <c r="D132" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -4246,12 +3642,8 @@
       <c r="C133" t="s">
         <v>253</v>
       </c>
-      <c r="D133" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -4261,12 +3653,8 @@
       <c r="C134" t="s">
         <v>254</v>
       </c>
-      <c r="D134" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -4276,12 +3664,8 @@
       <c r="C135" t="s">
         <v>255</v>
       </c>
-      <c r="D135" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -4291,12 +3675,8 @@
       <c r="C136" t="s">
         <v>256</v>
       </c>
-      <c r="D136" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -4306,12 +3686,8 @@
       <c r="C137" t="s">
         <v>257</v>
       </c>
-      <c r="D137" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -4321,12 +3697,8 @@
       <c r="C138" t="s">
         <v>258</v>
       </c>
-      <c r="D138" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4336,12 +3708,8 @@
       <c r="C139" t="s">
         <v>259</v>
       </c>
-      <c r="D139" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4351,12 +3719,8 @@
       <c r="C140" t="s">
         <v>260</v>
       </c>
-      <c r="D140" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4366,12 +3730,8 @@
       <c r="C141" t="s">
         <v>261</v>
       </c>
-      <c r="D141" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4381,12 +3741,8 @@
       <c r="C142" t="s">
         <v>262</v>
       </c>
-      <c r="D142" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4396,12 +3752,8 @@
       <c r="C143" t="s">
         <v>263</v>
       </c>
-      <c r="D143" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4411,12 +3763,8 @@
       <c r="C144" t="s">
         <v>264</v>
       </c>
-      <c r="D144" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4426,12 +3774,8 @@
       <c r="C145" t="s">
         <v>265</v>
       </c>
-      <c r="D145" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4441,12 +3785,8 @@
       <c r="C146" t="s">
         <v>266</v>
       </c>
-      <c r="D146" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4456,12 +3796,8 @@
       <c r="C147" t="s">
         <v>267</v>
       </c>
-      <c r="D147" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4471,12 +3807,8 @@
       <c r="C148" t="s">
         <v>268</v>
       </c>
-      <c r="D148" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4486,12 +3818,8 @@
       <c r="C149" t="s">
         <v>269</v>
       </c>
-      <c r="D149" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4501,12 +3829,8 @@
       <c r="C150" t="s">
         <v>270</v>
       </c>
-      <c r="D150" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4516,12 +3840,8 @@
       <c r="C151" t="s">
         <v>271</v>
       </c>
-      <c r="D151" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4531,12 +3851,8 @@
       <c r="C152" t="s">
         <v>272</v>
       </c>
-      <c r="D152" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4546,12 +3862,8 @@
       <c r="C153" t="s">
         <v>273</v>
       </c>
-      <c r="D153" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -4561,12 +3873,8 @@
       <c r="C154" t="s">
         <v>274</v>
       </c>
-      <c r="D154" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4576,12 +3884,8 @@
       <c r="C155" t="s">
         <v>275</v>
       </c>
-      <c r="D155" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4591,12 +3895,8 @@
       <c r="C156" t="s">
         <v>276</v>
       </c>
-      <c r="D156" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4606,12 +3906,8 @@
       <c r="C157" t="s">
         <v>277</v>
       </c>
-      <c r="D157" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4621,12 +3917,8 @@
       <c r="C158" t="s">
         <v>278</v>
       </c>
-      <c r="D158" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4636,12 +3928,8 @@
       <c r="C159" t="s">
         <v>279</v>
       </c>
-      <c r="D159" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4651,12 +3939,8 @@
       <c r="C160" t="s">
         <v>280</v>
       </c>
-      <c r="D160" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4666,12 +3950,8 @@
       <c r="C161" t="s">
         <v>281</v>
       </c>
-      <c r="D161" t="str">
-        <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4681,12 +3961,8 @@
       <c r="C162" t="s">
         <v>282</v>
       </c>
-      <c r="D162" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4696,12 +3972,8 @@
       <c r="C163" t="s">
         <v>283</v>
       </c>
-      <c r="D163" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4711,12 +3983,8 @@
       <c r="C164" t="s">
         <v>284</v>
       </c>
-      <c r="D164" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4726,12 +3994,8 @@
       <c r="C165" t="s">
         <v>285</v>
       </c>
-      <c r="D165" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4741,12 +4005,8 @@
       <c r="C166" t="s">
         <v>286</v>
       </c>
-      <c r="D166" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4756,12 +4016,8 @@
       <c r="C167" t="s">
         <v>287</v>
       </c>
-      <c r="D167" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4771,12 +4027,8 @@
       <c r="C168" t="s">
         <v>288</v>
       </c>
-      <c r="D168" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4786,12 +4038,8 @@
       <c r="C169" t="s">
         <v>289</v>
       </c>
-      <c r="D169" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4801,12 +4049,8 @@
       <c r="C170" t="s">
         <v>290</v>
       </c>
-      <c r="D170" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4816,12 +4060,8 @@
       <c r="C171" t="s">
         <v>291</v>
       </c>
-      <c r="D171" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4831,12 +4071,8 @@
       <c r="C172" t="s">
         <v>292</v>
       </c>
-      <c r="D172" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4846,12 +4082,8 @@
       <c r="C173" t="s">
         <v>293</v>
       </c>
-      <c r="D173" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4861,12 +4093,8 @@
       <c r="C174" t="s">
         <v>294</v>
       </c>
-      <c r="D174" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4876,12 +4104,8 @@
       <c r="C175" t="s">
         <v>295</v>
       </c>
-      <c r="D175" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4891,12 +4115,8 @@
       <c r="C176" t="s">
         <v>296</v>
       </c>
-      <c r="D176" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4906,12 +4126,8 @@
       <c r="C177" t="s">
         <v>297</v>
       </c>
-      <c r="D177" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4921,12 +4137,8 @@
       <c r="C178" t="s">
         <v>298</v>
       </c>
-      <c r="D178" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4936,12 +4148,8 @@
       <c r="C179" t="s">
         <v>299</v>
       </c>
-      <c r="D179" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4951,12 +4159,8 @@
       <c r="C180" t="s">
         <v>300</v>
       </c>
-      <c r="D180" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4966,12 +4170,8 @@
       <c r="C181" t="s">
         <v>301</v>
       </c>
-      <c r="D181" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4981,12 +4181,8 @@
       <c r="C182" t="s">
         <v>302</v>
       </c>
-      <c r="D182" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4996,12 +4192,8 @@
       <c r="C183" t="s">
         <v>303</v>
       </c>
-      <c r="D183" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -5011,12 +4203,8 @@
       <c r="C184" t="s">
         <v>304</v>
       </c>
-      <c r="D184" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -5026,12 +4214,8 @@
       <c r="C185" t="s">
         <v>305</v>
       </c>
-      <c r="D185" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -5041,12 +4225,8 @@
       <c r="C186" t="s">
         <v>306</v>
       </c>
-      <c r="D186" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -5056,12 +4236,8 @@
       <c r="C187" t="s">
         <v>307</v>
       </c>
-      <c r="D187" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -5071,12 +4247,8 @@
       <c r="C188" t="s">
         <v>308</v>
       </c>
-      <c r="D188" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -5086,12 +4258,8 @@
       <c r="C189" t="s">
         <v>309</v>
       </c>
-      <c r="D189" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -5101,12 +4269,8 @@
       <c r="C190" t="s">
         <v>310</v>
       </c>
-      <c r="D190" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -5116,12 +4280,8 @@
       <c r="C191" t="s">
         <v>311</v>
       </c>
-      <c r="D191" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -5131,12 +4291,8 @@
       <c r="C192" t="s">
         <v>312</v>
       </c>
-      <c r="D192" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -5146,12 +4302,8 @@
       <c r="C193" t="s">
         <v>313</v>
       </c>
-      <c r="D193" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -5161,12 +4313,8 @@
       <c r="C194" t="s">
         <v>314</v>
       </c>
-      <c r="D194" t="str">
-        <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -5176,12 +4324,8 @@
       <c r="C195" t="s">
         <v>315</v>
       </c>
-      <c r="D195" t="str">
-        <f t="shared" ref="D195:D258" si="3">MID(B195,6,2)</f>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -5191,12 +4335,8 @@
       <c r="C196" t="s">
         <v>316</v>
       </c>
-      <c r="D196" t="str">
-        <f t="shared" si="3"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -5206,12 +4346,8 @@
       <c r="C197" t="s">
         <v>317</v>
       </c>
-      <c r="D197" t="str">
-        <f t="shared" si="3"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -5221,12 +4357,8 @@
       <c r="C198" t="s">
         <v>318</v>
       </c>
-      <c r="D198" t="str">
-        <f t="shared" si="3"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -5236,12 +4368,8 @@
       <c r="C199" t="s">
         <v>319</v>
       </c>
-      <c r="D199" t="str">
-        <f t="shared" si="3"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -5251,12 +4379,8 @@
       <c r="C200" t="s">
         <v>320</v>
       </c>
-      <c r="D200" t="str">
-        <f t="shared" si="3"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -5266,12 +4390,8 @@
       <c r="C201" t="s">
         <v>321</v>
       </c>
-      <c r="D201" t="str">
-        <f t="shared" si="3"/>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -5281,12 +4401,8 @@
       <c r="C202" t="s">
         <v>322</v>
       </c>
-      <c r="D202" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -5296,12 +4412,8 @@
       <c r="C203" t="s">
         <v>323</v>
       </c>
-      <c r="D203" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -5311,12 +4423,8 @@
       <c r="C204" t="s">
         <v>324</v>
       </c>
-      <c r="D204" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -5326,12 +4434,8 @@
       <c r="C205" t="s">
         <v>325</v>
       </c>
-      <c r="D205" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -5341,12 +4445,8 @@
       <c r="C206" t="s">
         <v>326</v>
       </c>
-      <c r="D206" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -5356,12 +4456,8 @@
       <c r="C207" t="s">
         <v>327</v>
       </c>
-      <c r="D207" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -5371,12 +4467,8 @@
       <c r="C208" t="s">
         <v>328</v>
       </c>
-      <c r="D208" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -5386,12 +4478,8 @@
       <c r="C209" t="s">
         <v>329</v>
       </c>
-      <c r="D209" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -5401,12 +4489,8 @@
       <c r="C210" t="s">
         <v>330</v>
       </c>
-      <c r="D210" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -5416,12 +4500,8 @@
       <c r="C211" t="s">
         <v>331</v>
       </c>
-      <c r="D211" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -5431,12 +4511,8 @@
       <c r="C212" t="s">
         <v>332</v>
       </c>
-      <c r="D212" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -5446,12 +4522,8 @@
       <c r="C213" t="s">
         <v>333</v>
       </c>
-      <c r="D213" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -5461,12 +4533,8 @@
       <c r="C214" t="s">
         <v>334</v>
       </c>
-      <c r="D214" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -5476,12 +4544,8 @@
       <c r="C215" t="s">
         <v>335</v>
       </c>
-      <c r="D215" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -5491,12 +4555,8 @@
       <c r="C216" t="s">
         <v>336</v>
       </c>
-      <c r="D216" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -5506,12 +4566,8 @@
       <c r="C217" t="s">
         <v>337</v>
       </c>
-      <c r="D217" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -5521,12 +4577,8 @@
       <c r="C218" t="s">
         <v>338</v>
       </c>
-      <c r="D218" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -5536,12 +4588,8 @@
       <c r="C219" t="s">
         <v>339</v>
       </c>
-      <c r="D219" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -5551,12 +4599,8 @@
       <c r="C220" t="s">
         <v>340</v>
       </c>
-      <c r="D220" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -5566,12 +4610,8 @@
       <c r="C221" t="s">
         <v>341</v>
       </c>
-      <c r="D221" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -5581,12 +4621,8 @@
       <c r="C222" t="s">
         <v>342</v>
       </c>
-      <c r="D222" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -5596,12 +4632,8 @@
       <c r="C223" t="s">
         <v>343</v>
       </c>
-      <c r="D223" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -5611,12 +4643,8 @@
       <c r="C224" t="s">
         <v>344</v>
       </c>
-      <c r="D224" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -5626,12 +4654,8 @@
       <c r="C225" t="s">
         <v>345</v>
       </c>
-      <c r="D225" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -5641,12 +4665,8 @@
       <c r="C226" t="s">
         <v>346</v>
       </c>
-      <c r="D226" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -5656,12 +4676,8 @@
       <c r="C227" t="s">
         <v>347</v>
       </c>
-      <c r="D227" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -5671,12 +4687,8 @@
       <c r="C228" t="s">
         <v>348</v>
       </c>
-      <c r="D228" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -5686,12 +4698,8 @@
       <c r="C229" t="s">
         <v>349</v>
       </c>
-      <c r="D229" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -5701,12 +4709,8 @@
       <c r="C230" t="s">
         <v>350</v>
       </c>
-      <c r="D230" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5716,12 +4720,8 @@
       <c r="C231" t="s">
         <v>351</v>
       </c>
-      <c r="D231" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5731,12 +4731,8 @@
       <c r="C232" t="s">
         <v>352</v>
       </c>
-      <c r="D232" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5746,12 +4742,8 @@
       <c r="C233" t="s">
         <v>353</v>
       </c>
-      <c r="D233" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5761,12 +4753,8 @@
       <c r="C234" t="s">
         <v>354</v>
       </c>
-      <c r="D234" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5776,12 +4764,8 @@
       <c r="C235" t="s">
         <v>355</v>
       </c>
-      <c r="D235" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -5791,12 +4775,8 @@
       <c r="C236" t="s">
         <v>356</v>
       </c>
-      <c r="D236" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -5806,12 +4786,8 @@
       <c r="C237" t="s">
         <v>357</v>
       </c>
-      <c r="D237" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -5821,12 +4797,8 @@
       <c r="C238" t="s">
         <v>358</v>
       </c>
-      <c r="D238" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -5836,12 +4808,8 @@
       <c r="C239" t="s">
         <v>359</v>
       </c>
-      <c r="D239" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -5851,12 +4819,8 @@
       <c r="C240" t="s">
         <v>360</v>
       </c>
-      <c r="D240" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -5866,12 +4830,8 @@
       <c r="C241" t="s">
         <v>361</v>
       </c>
-      <c r="D241" t="str">
-        <f t="shared" si="3"/>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -5881,12 +4841,8 @@
       <c r="C242" t="s">
         <v>362</v>
       </c>
-      <c r="D242" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -5896,12 +4852,8 @@
       <c r="C243" t="s">
         <v>363</v>
       </c>
-      <c r="D243" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -5911,12 +4863,8 @@
       <c r="C244" t="s">
         <v>364</v>
       </c>
-      <c r="D244" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -5926,12 +4874,8 @@
       <c r="C245" t="s">
         <v>365</v>
       </c>
-      <c r="D245" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -5941,12 +4885,8 @@
       <c r="C246" t="s">
         <v>366</v>
       </c>
-      <c r="D246" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -5956,12 +4896,8 @@
       <c r="C247" t="s">
         <v>367</v>
       </c>
-      <c r="D247" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -5971,12 +4907,8 @@
       <c r="C248" t="s">
         <v>368</v>
       </c>
-      <c r="D248" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -5986,12 +4918,8 @@
       <c r="C249" t="s">
         <v>369</v>
       </c>
-      <c r="D249" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -6001,12 +4929,8 @@
       <c r="C250" t="s">
         <v>370</v>
       </c>
-      <c r="D250" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -6016,12 +4940,8 @@
       <c r="C251" t="s">
         <v>371</v>
       </c>
-      <c r="D251" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -6031,12 +4951,8 @@
       <c r="C252" t="s">
         <v>372</v>
       </c>
-      <c r="D252" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -6046,12 +4962,8 @@
       <c r="C253" t="s">
         <v>373</v>
       </c>
-      <c r="D253" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -6061,12 +4973,8 @@
       <c r="C254" t="s">
         <v>374</v>
       </c>
-      <c r="D254" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -6076,12 +4984,8 @@
       <c r="C255" t="s">
         <v>375</v>
       </c>
-      <c r="D255" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -6091,12 +4995,8 @@
       <c r="C256" t="s">
         <v>376</v>
       </c>
-      <c r="D256" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -6106,12 +5006,8 @@
       <c r="C257" t="s">
         <v>377</v>
       </c>
-      <c r="D257" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -6121,12 +5017,8 @@
       <c r="C258" t="s">
         <v>378</v>
       </c>
-      <c r="D258" t="str">
-        <f t="shared" si="3"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -6136,12 +5028,8 @@
       <c r="C259" t="s">
         <v>379</v>
       </c>
-      <c r="D259" t="str">
-        <f t="shared" ref="D259:D322" si="4">MID(B259,6,2)</f>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -6151,12 +5039,8 @@
       <c r="C260" t="s">
         <v>380</v>
       </c>
-      <c r="D260" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -6166,12 +5050,8 @@
       <c r="C261" t="s">
         <v>381</v>
       </c>
-      <c r="D261" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -6181,12 +5061,8 @@
       <c r="C262" t="s">
         <v>382</v>
       </c>
-      <c r="D262" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -6196,12 +5072,8 @@
       <c r="C263" t="s">
         <v>383</v>
       </c>
-      <c r="D263" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -6211,12 +5083,8 @@
       <c r="C264" t="s">
         <v>384</v>
       </c>
-      <c r="D264" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -6226,12 +5094,8 @@
       <c r="C265" t="s">
         <v>385</v>
       </c>
-      <c r="D265" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -6241,12 +5105,8 @@
       <c r="C266" t="s">
         <v>386</v>
       </c>
-      <c r="D266" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -6256,12 +5116,8 @@
       <c r="C267" t="s">
         <v>387</v>
       </c>
-      <c r="D267" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -6271,12 +5127,8 @@
       <c r="C268" t="s">
         <v>388</v>
       </c>
-      <c r="D268" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -6286,12 +5138,8 @@
       <c r="C269" t="s">
         <v>389</v>
       </c>
-      <c r="D269" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -6301,12 +5149,8 @@
       <c r="C270" t="s">
         <v>390</v>
       </c>
-      <c r="D270" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -6316,12 +5160,8 @@
       <c r="C271" t="s">
         <v>391</v>
       </c>
-      <c r="D271" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -6331,12 +5171,8 @@
       <c r="C272" t="s">
         <v>392</v>
       </c>
-      <c r="D272" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -6346,12 +5182,8 @@
       <c r="C273" t="s">
         <v>393</v>
       </c>
-      <c r="D273" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -6361,12 +5193,8 @@
       <c r="C274" t="s">
         <v>394</v>
       </c>
-      <c r="D274" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -6376,12 +5204,8 @@
       <c r="C275" t="s">
         <v>395</v>
       </c>
-      <c r="D275" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -6391,12 +5215,8 @@
       <c r="C276" t="s">
         <v>396</v>
       </c>
-      <c r="D276" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -6406,12 +5226,8 @@
       <c r="C277" t="s">
         <v>397</v>
       </c>
-      <c r="D277" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -6421,12 +5237,8 @@
       <c r="C278" t="s">
         <v>398</v>
       </c>
-      <c r="D278" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -6436,12 +5248,8 @@
       <c r="C279" t="s">
         <v>399</v>
       </c>
-      <c r="D279" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -6451,12 +5259,8 @@
       <c r="C280" t="s">
         <v>400</v>
       </c>
-      <c r="D280" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -6466,12 +5270,8 @@
       <c r="C281" t="s">
         <v>401</v>
       </c>
-      <c r="D281" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -6481,12 +5281,8 @@
       <c r="C282" t="s">
         <v>402</v>
       </c>
-      <c r="D282" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -6496,12 +5292,8 @@
       <c r="C283" t="s">
         <v>403</v>
       </c>
-      <c r="D283" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -6511,12 +5303,8 @@
       <c r="C284" t="s">
         <v>404</v>
       </c>
-      <c r="D284" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="285" spans="1:3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -6526,12 +5314,8 @@
       <c r="C285" t="s">
         <v>405</v>
       </c>
-      <c r="D285" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -6541,12 +5325,8 @@
       <c r="C286" t="s">
         <v>406</v>
       </c>
-      <c r="D286" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -6556,12 +5336,8 @@
       <c r="C287" t="s">
         <v>407</v>
       </c>
-      <c r="D287" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -6571,12 +5347,8 @@
       <c r="C288" t="s">
         <v>408</v>
       </c>
-      <c r="D288" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -6586,12 +5358,8 @@
       <c r="C289" t="s">
         <v>409</v>
       </c>
-      <c r="D289" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -6601,12 +5369,8 @@
       <c r="C290" t="s">
         <v>410</v>
       </c>
-      <c r="D290" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -6616,12 +5380,8 @@
       <c r="C291" t="s">
         <v>411</v>
       </c>
-      <c r="D291" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -6631,12 +5391,8 @@
       <c r="C292" t="s">
         <v>412</v>
       </c>
-      <c r="D292" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -6646,12 +5402,8 @@
       <c r="C293" t="s">
         <v>413</v>
       </c>
-      <c r="D293" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -6661,12 +5413,8 @@
       <c r="C294" t="s">
         <v>414</v>
       </c>
-      <c r="D294" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -6676,12 +5424,8 @@
       <c r="C295" t="s">
         <v>415</v>
       </c>
-      <c r="D295" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="296" spans="1:3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -6691,12 +5435,8 @@
       <c r="C296" t="s">
         <v>416</v>
       </c>
-      <c r="D296" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -6706,12 +5446,8 @@
       <c r="C297" t="s">
         <v>417</v>
       </c>
-      <c r="D297" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -6721,12 +5457,8 @@
       <c r="C298" t="s">
         <v>418</v>
       </c>
-      <c r="D298" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="299" spans="1:3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -6736,12 +5468,8 @@
       <c r="C299" t="s">
         <v>419</v>
       </c>
-      <c r="D299" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="300" spans="1:3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -6751,12 +5479,8 @@
       <c r="C300" t="s">
         <v>420</v>
       </c>
-      <c r="D300" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="301" spans="1:3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -6766,12 +5490,8 @@
       <c r="C301" t="s">
         <v>421</v>
       </c>
-      <c r="D301" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -6781,12 +5501,8 @@
       <c r="C302" t="s">
         <v>422</v>
       </c>
-      <c r="D302" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="303" spans="1:3">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -6796,12 +5512,8 @@
       <c r="C303" t="s">
         <v>423</v>
       </c>
-      <c r="D303" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="304" spans="1:3">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -6811,12 +5523,8 @@
       <c r="C304" t="s">
         <v>424</v>
       </c>
-      <c r="D304" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="305" spans="1:3">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -6826,12 +5534,8 @@
       <c r="C305" t="s">
         <v>425</v>
       </c>
-      <c r="D305" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="306" spans="1:3">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -6841,12 +5545,8 @@
       <c r="C306" t="s">
         <v>426</v>
       </c>
-      <c r="D306" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="307" spans="1:3">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -6856,12 +5556,8 @@
       <c r="C307" t="s">
         <v>427</v>
       </c>
-      <c r="D307" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="308" spans="1:3">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -6871,12 +5567,8 @@
       <c r="C308" t="s">
         <v>428</v>
       </c>
-      <c r="D308" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="309" spans="1:3">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -6886,12 +5578,8 @@
       <c r="C309" t="s">
         <v>429</v>
       </c>
-      <c r="D309" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="310" spans="1:3">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -6901,12 +5589,8 @@
       <c r="C310" t="s">
         <v>430</v>
       </c>
-      <c r="D310" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="311" spans="1:3">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -6916,12 +5600,8 @@
       <c r="C311" t="s">
         <v>431</v>
       </c>
-      <c r="D311" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="312" spans="1:3">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -6931,12 +5611,8 @@
       <c r="C312" t="s">
         <v>432</v>
       </c>
-      <c r="D312" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="313" spans="1:3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -6946,12 +5622,8 @@
       <c r="C313" t="s">
         <v>433</v>
       </c>
-      <c r="D313" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="314" spans="1:3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -6961,12 +5633,8 @@
       <c r="C314" t="s">
         <v>434</v>
       </c>
-      <c r="D314" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="315" spans="1:3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -6976,12 +5644,8 @@
       <c r="C315" t="s">
         <v>435</v>
       </c>
-      <c r="D315" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="316" spans="1:3">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -6991,12 +5655,8 @@
       <c r="C316" t="s">
         <v>436</v>
       </c>
-      <c r="D316" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="317" spans="1:3">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -7006,12 +5666,8 @@
       <c r="C317" t="s">
         <v>437</v>
       </c>
-      <c r="D317" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="318" spans="1:3">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -7021,12 +5677,8 @@
       <c r="C318" t="s">
         <v>438</v>
       </c>
-      <c r="D318" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="319" spans="1:3">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -7036,12 +5688,8 @@
       <c r="C319" t="s">
         <v>439</v>
       </c>
-      <c r="D319" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="320" spans="1:3">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -7051,12 +5699,8 @@
       <c r="C320" t="s">
         <v>440</v>
       </c>
-      <c r="D320" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="321" spans="1:3">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -7066,12 +5710,8 @@
       <c r="C321" t="s">
         <v>441</v>
       </c>
-      <c r="D321" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="322" spans="1:3">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -7081,12 +5721,8 @@
       <c r="C322" t="s">
         <v>442</v>
       </c>
-      <c r="D322" t="str">
-        <f t="shared" si="4"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="323" spans="1:3">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -7096,12 +5732,8 @@
       <c r="C323" t="s">
         <v>443</v>
       </c>
-      <c r="D323" t="str">
-        <f t="shared" ref="D323:D386" si="5">MID(B323,6,2)</f>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="324" spans="1:3">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -7111,12 +5743,8 @@
       <c r="C324" t="s">
         <v>444</v>
       </c>
-      <c r="D324" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="325" spans="1:3">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -7126,12 +5754,8 @@
       <c r="C325" t="s">
         <v>445</v>
       </c>
-      <c r="D325" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="326" spans="1:3">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -7141,12 +5765,8 @@
       <c r="C326" t="s">
         <v>446</v>
       </c>
-      <c r="D326" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="327" spans="1:3">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -7156,12 +5776,8 @@
       <c r="C327" t="s">
         <v>447</v>
       </c>
-      <c r="D327" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="328" spans="1:3">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -7171,12 +5787,8 @@
       <c r="C328" t="s">
         <v>448</v>
       </c>
-      <c r="D328" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="329" spans="1:3">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -7186,12 +5798,8 @@
       <c r="C329" t="s">
         <v>449</v>
       </c>
-      <c r="D329" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="330" spans="1:3">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -7201,12 +5809,8 @@
       <c r="C330" t="s">
         <v>450</v>
       </c>
-      <c r="D330" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="331" spans="1:3">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -7216,12 +5820,8 @@
       <c r="C331" t="s">
         <v>451</v>
       </c>
-      <c r="D331" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="332" spans="1:3">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -7231,12 +5831,8 @@
       <c r="C332" t="s">
         <v>452</v>
       </c>
-      <c r="D332" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="333" spans="1:3">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -7246,12 +5842,8 @@
       <c r="C333" t="s">
         <v>453</v>
       </c>
-      <c r="D333" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="334" spans="1:3">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -7261,12 +5853,8 @@
       <c r="C334" t="s">
         <v>454</v>
       </c>
-      <c r="D334" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="335" spans="1:3">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -7276,12 +5864,8 @@
       <c r="C335" t="s">
         <v>455</v>
       </c>
-      <c r="D335" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="336" spans="1:3">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -7291,12 +5875,8 @@
       <c r="C336" t="s">
         <v>456</v>
       </c>
-      <c r="D336" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="337" spans="1:3">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -7306,12 +5886,8 @@
       <c r="C337" t="s">
         <v>457</v>
       </c>
-      <c r="D337" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="338" spans="1:3">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -7321,12 +5897,8 @@
       <c r="C338" t="s">
         <v>458</v>
       </c>
-      <c r="D338" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="339" spans="1:3">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -7336,12 +5908,8 @@
       <c r="C339" t="s">
         <v>459</v>
       </c>
-      <c r="D339" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="340" spans="1:3">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -7351,12 +5919,8 @@
       <c r="C340" t="s">
         <v>460</v>
       </c>
-      <c r="D340" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="341" spans="1:3">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -7366,12 +5930,8 @@
       <c r="C341" t="s">
         <v>461</v>
       </c>
-      <c r="D341" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="342" spans="1:3">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -7381,12 +5941,8 @@
       <c r="C342" t="s">
         <v>462</v>
       </c>
-      <c r="D342" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="343" spans="1:3">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -7396,12 +5952,8 @@
       <c r="C343" t="s">
         <v>463</v>
       </c>
-      <c r="D343" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="344" spans="1:3">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -7411,12 +5963,8 @@
       <c r="C344" t="s">
         <v>464</v>
       </c>
-      <c r="D344" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="345" spans="1:3">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -7426,12 +5974,8 @@
       <c r="C345" t="s">
         <v>465</v>
       </c>
-      <c r="D345" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="346" spans="1:3">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -7441,12 +5985,8 @@
       <c r="C346" t="s">
         <v>466</v>
       </c>
-      <c r="D346" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="347" spans="1:3">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -7456,12 +5996,8 @@
       <c r="C347" t="s">
         <v>467</v>
       </c>
-      <c r="D347" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="348" spans="1:3">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -7471,12 +6007,8 @@
       <c r="C348" t="s">
         <v>468</v>
       </c>
-      <c r="D348" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="349" spans="1:3">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -7486,12 +6018,8 @@
       <c r="C349" t="s">
         <v>469</v>
       </c>
-      <c r="D349" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="350" spans="1:3">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -7501,12 +6029,8 @@
       <c r="C350" t="s">
         <v>470</v>
       </c>
-      <c r="D350" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="351" spans="1:3">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -7516,12 +6040,8 @@
       <c r="C351" t="s">
         <v>471</v>
       </c>
-      <c r="D351" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="352" spans="1:3">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -7531,12 +6051,8 @@
       <c r="C352" t="s">
         <v>472</v>
       </c>
-      <c r="D352" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="353" spans="1:3">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -7546,12 +6062,8 @@
       <c r="C353" t="s">
         <v>473</v>
       </c>
-      <c r="D353" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="354" spans="1:3">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -7561,12 +6073,8 @@
       <c r="C354" t="s">
         <v>474</v>
       </c>
-      <c r="D354" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="355" spans="1:3">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -7576,12 +6084,8 @@
       <c r="C355" t="s">
         <v>475</v>
       </c>
-      <c r="D355" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="356" spans="1:3">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -7591,12 +6095,8 @@
       <c r="C356" t="s">
         <v>476</v>
       </c>
-      <c r="D356" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="357" spans="1:3">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -7606,12 +6106,8 @@
       <c r="C357" t="s">
         <v>477</v>
       </c>
-      <c r="D357" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="358" spans="1:3">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -7621,12 +6117,8 @@
       <c r="C358" t="s">
         <v>478</v>
       </c>
-      <c r="D358" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="359" spans="1:3">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -7636,12 +6128,8 @@
       <c r="C359" t="s">
         <v>479</v>
       </c>
-      <c r="D359" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="360" spans="1:3">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -7651,12 +6139,8 @@
       <c r="C360" t="s">
         <v>480</v>
       </c>
-      <c r="D360" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="361" spans="1:3">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -7666,12 +6150,8 @@
       <c r="C361" t="s">
         <v>481</v>
       </c>
-      <c r="D361" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="362" spans="1:3">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -7681,12 +6161,8 @@
       <c r="C362" t="s">
         <v>482</v>
       </c>
-      <c r="D362" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="363" spans="1:3">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -7696,12 +6172,8 @@
       <c r="C363" t="s">
         <v>483</v>
       </c>
-      <c r="D363" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="364" spans="1:3">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -7711,12 +6183,8 @@
       <c r="C364" t="s">
         <v>484</v>
       </c>
-      <c r="D364" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="365" spans="1:3">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -7726,12 +6194,8 @@
       <c r="C365" t="s">
         <v>485</v>
       </c>
-      <c r="D365" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="366" spans="1:3">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -7741,12 +6205,8 @@
       <c r="C366" t="s">
         <v>486</v>
       </c>
-      <c r="D366" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="367" spans="1:3">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -7756,12 +6216,8 @@
       <c r="C367" t="s">
         <v>487</v>
       </c>
-      <c r="D367" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="368" spans="1:3">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -7771,12 +6227,8 @@
       <c r="C368" t="s">
         <v>488</v>
       </c>
-      <c r="D368" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="369" spans="1:3">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -7786,12 +6238,8 @@
       <c r="C369" t="s">
         <v>489</v>
       </c>
-      <c r="D369" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="370" spans="1:3">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -7801,12 +6249,8 @@
       <c r="C370" t="s">
         <v>490</v>
       </c>
-      <c r="D370" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="371" spans="1:3">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -7816,12 +6260,8 @@
       <c r="C371" t="s">
         <v>491</v>
       </c>
-      <c r="D371" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="372" spans="1:3">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -7831,12 +6271,8 @@
       <c r="C372" t="s">
         <v>492</v>
       </c>
-      <c r="D372" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="373" spans="1:3">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -7846,12 +6282,8 @@
       <c r="C373" t="s">
         <v>493</v>
       </c>
-      <c r="D373" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="374" spans="1:3">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -7861,12 +6293,8 @@
       <c r="C374" t="s">
         <v>494</v>
       </c>
-      <c r="D374" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="375" spans="1:3">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -7876,12 +6304,8 @@
       <c r="C375" t="s">
         <v>495</v>
       </c>
-      <c r="D375" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="376" spans="1:3">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -7891,12 +6315,8 @@
       <c r="C376" t="s">
         <v>496</v>
       </c>
-      <c r="D376" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="377" spans="1:3">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -7906,12 +6326,8 @@
       <c r="C377" t="s">
         <v>497</v>
       </c>
-      <c r="D377" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="378" spans="1:3">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -7921,12 +6337,8 @@
       <c r="C378" t="s">
         <v>498</v>
       </c>
-      <c r="D378" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="379" spans="1:3">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -7936,12 +6348,8 @@
       <c r="C379" t="s">
         <v>499</v>
       </c>
-      <c r="D379" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="380" spans="1:3">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -7951,12 +6359,8 @@
       <c r="C380" t="s">
         <v>500</v>
       </c>
-      <c r="D380" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="381" spans="1:3">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -7966,12 +6370,8 @@
       <c r="C381" t="s">
         <v>501</v>
       </c>
-      <c r="D381" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="382" spans="1:3">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -7981,12 +6381,8 @@
       <c r="C382" t="s">
         <v>502</v>
       </c>
-      <c r="D382" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="383" spans="1:3">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -7996,12 +6392,8 @@
       <c r="C383" t="s">
         <v>503</v>
       </c>
-      <c r="D383" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="384" spans="1:3">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -8011,12 +6403,8 @@
       <c r="C384" t="s">
         <v>504</v>
       </c>
-      <c r="D384" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="385" spans="1:3">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -8026,12 +6414,8 @@
       <c r="C385" t="s">
         <v>505</v>
       </c>
-      <c r="D385" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="386" spans="1:3">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -8041,12 +6425,8 @@
       <c r="C386" t="s">
         <v>506</v>
       </c>
-      <c r="D386" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="387" spans="1:3">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -8056,12 +6436,8 @@
       <c r="C387" t="s">
         <v>507</v>
       </c>
-      <c r="D387" t="str">
-        <f t="shared" ref="D387:D450" si="6">MID(B387,6,2)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="388" spans="1:3">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -8071,12 +6447,8 @@
       <c r="C388" t="s">
         <v>508</v>
       </c>
-      <c r="D388" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="389" spans="1:3">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -8086,12 +6458,8 @@
       <c r="C389" t="s">
         <v>509</v>
       </c>
-      <c r="D389" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="390" spans="1:3">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -8101,12 +6469,8 @@
       <c r="C390" t="s">
         <v>510</v>
       </c>
-      <c r="D390" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="391" spans="1:3">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -8116,12 +6480,8 @@
       <c r="C391" t="s">
         <v>511</v>
       </c>
-      <c r="D391" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="392" spans="1:3">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -8131,12 +6491,8 @@
       <c r="C392" t="s">
         <v>512</v>
       </c>
-      <c r="D392" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="393" spans="1:3">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -8146,12 +6502,8 @@
       <c r="C393" t="s">
         <v>513</v>
       </c>
-      <c r="D393" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="394" spans="1:3">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -8161,12 +6513,8 @@
       <c r="C394" t="s">
         <v>514</v>
       </c>
-      <c r="D394" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="395" spans="1:3">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -8176,12 +6524,8 @@
       <c r="C395" t="s">
         <v>515</v>
       </c>
-      <c r="D395" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="396" spans="1:3">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -8191,12 +6535,8 @@
       <c r="C396" t="s">
         <v>516</v>
       </c>
-      <c r="D396" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="397" spans="1:3">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -8206,12 +6546,8 @@
       <c r="C397" t="s">
         <v>517</v>
       </c>
-      <c r="D397" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="398" spans="1:3">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -8221,12 +6557,8 @@
       <c r="C398" t="s">
         <v>518</v>
       </c>
-      <c r="D398" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="399" spans="1:3">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -8236,12 +6568,8 @@
       <c r="C399" t="s">
         <v>519</v>
       </c>
-      <c r="D399" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="400" spans="1:3">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -8251,12 +6579,8 @@
       <c r="C400" t="s">
         <v>520</v>
       </c>
-      <c r="D400" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="401" spans="1:3">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -8266,12 +6590,8 @@
       <c r="C401" t="s">
         <v>521</v>
       </c>
-      <c r="D401" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="402" spans="1:3">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -8281,12 +6601,8 @@
       <c r="C402" t="s">
         <v>522</v>
       </c>
-      <c r="D402" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="403" spans="1:3">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -8296,12 +6612,8 @@
       <c r="C403" t="s">
         <v>523</v>
       </c>
-      <c r="D403" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="404" spans="1:3">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -8311,12 +6623,8 @@
       <c r="C404" t="s">
         <v>524</v>
       </c>
-      <c r="D404" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="405" spans="1:3">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -8326,12 +6634,8 @@
       <c r="C405" t="s">
         <v>525</v>
       </c>
-      <c r="D405" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="406" spans="1:3">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -8341,12 +6645,8 @@
       <c r="C406" t="s">
         <v>526</v>
       </c>
-      <c r="D406" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="407" spans="1:3">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -8356,12 +6656,8 @@
       <c r="C407" t="s">
         <v>527</v>
       </c>
-      <c r="D407" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="408" spans="1:3">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -8371,12 +6667,8 @@
       <c r="C408" t="s">
         <v>528</v>
       </c>
-      <c r="D408" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="409" spans="1:3">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -8386,12 +6678,8 @@
       <c r="C409" t="s">
         <v>529</v>
       </c>
-      <c r="D409" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="410" spans="1:3">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -8401,12 +6689,8 @@
       <c r="C410" t="s">
         <v>530</v>
       </c>
-      <c r="D410" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="411" spans="1:3">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -8416,12 +6700,8 @@
       <c r="C411" t="s">
         <v>531</v>
       </c>
-      <c r="D411" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="412" spans="1:3">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -8431,12 +6711,8 @@
       <c r="C412" t="s">
         <v>532</v>
       </c>
-      <c r="D412" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="413" spans="1:3">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -8446,12 +6722,8 @@
       <c r="C413" t="s">
         <v>533</v>
       </c>
-      <c r="D413" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="414" spans="1:3">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -8461,12 +6733,8 @@
       <c r="C414" t="s">
         <v>534</v>
       </c>
-      <c r="D414" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="415" spans="1:3">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -8476,12 +6744,8 @@
       <c r="C415" t="s">
         <v>535</v>
       </c>
-      <c r="D415" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="416" spans="1:3">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -8491,12 +6755,8 @@
       <c r="C416" t="s">
         <v>536</v>
       </c>
-      <c r="D416" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="417" spans="1:3">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -8506,12 +6766,8 @@
       <c r="C417" t="s">
         <v>537</v>
       </c>
-      <c r="D417" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="418" spans="1:3">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -8521,12 +6777,8 @@
       <c r="C418" t="s">
         <v>538</v>
       </c>
-      <c r="D418" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="419" spans="1:3">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -8536,12 +6788,8 @@
       <c r="C419" t="s">
         <v>539</v>
       </c>
-      <c r="D419" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="420" spans="1:3">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -8551,12 +6799,8 @@
       <c r="C420" t="s">
         <v>540</v>
       </c>
-      <c r="D420" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="421" spans="1:3">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -8566,12 +6810,8 @@
       <c r="C421" t="s">
         <v>541</v>
       </c>
-      <c r="D421" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="422" spans="1:3">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -8581,12 +6821,8 @@
       <c r="C422" t="s">
         <v>542</v>
       </c>
-      <c r="D422" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="423" spans="1:3">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -8596,12 +6832,8 @@
       <c r="C423" t="s">
         <v>543</v>
       </c>
-      <c r="D423" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="424" spans="1:3">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -8611,12 +6843,8 @@
       <c r="C424" t="s">
         <v>544</v>
       </c>
-      <c r="D424" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="425" spans="1:3">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -8626,12 +6854,8 @@
       <c r="C425" t="s">
         <v>545</v>
       </c>
-      <c r="D425" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="426" spans="1:3">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -8641,12 +6865,8 @@
       <c r="C426" t="s">
         <v>546</v>
       </c>
-      <c r="D426" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="427" spans="1:3">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -8656,12 +6876,8 @@
       <c r="C427" t="s">
         <v>547</v>
       </c>
-      <c r="D427" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="428" spans="1:3">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -8671,12 +6887,8 @@
       <c r="C428" t="s">
         <v>548</v>
       </c>
-      <c r="D428" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="429" spans="1:3">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -8686,12 +6898,8 @@
       <c r="C429" t="s">
         <v>549</v>
       </c>
-      <c r="D429" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="430" spans="1:3">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -8701,12 +6909,8 @@
       <c r="C430" t="s">
         <v>550</v>
       </c>
-      <c r="D430" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="431" spans="1:3">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -8716,12 +6920,8 @@
       <c r="C431" t="s">
         <v>551</v>
       </c>
-      <c r="D431" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="432" spans="1:3">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -8731,12 +6931,8 @@
       <c r="C432" t="s">
         <v>552</v>
       </c>
-      <c r="D432" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="433" spans="1:3">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -8746,12 +6942,8 @@
       <c r="C433" t="s">
         <v>553</v>
       </c>
-      <c r="D433" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="434" spans="1:3">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -8761,12 +6953,8 @@
       <c r="C434" t="s">
         <v>554</v>
       </c>
-      <c r="D434" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="435" spans="1:3">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -8776,12 +6964,8 @@
       <c r="C435" t="s">
         <v>555</v>
       </c>
-      <c r="D435" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="436" spans="1:3">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -8791,12 +6975,8 @@
       <c r="C436" t="s">
         <v>556</v>
       </c>
-      <c r="D436" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="437" spans="1:3">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -8806,12 +6986,8 @@
       <c r="C437" t="s">
         <v>557</v>
       </c>
-      <c r="D437" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="438" spans="1:3">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -8821,12 +6997,8 @@
       <c r="C438" t="s">
         <v>558</v>
       </c>
-      <c r="D438" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="439" spans="1:3">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -8836,12 +7008,8 @@
       <c r="C439" t="s">
         <v>559</v>
       </c>
-      <c r="D439" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="440" spans="1:3">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -8851,12 +7019,8 @@
       <c r="C440" t="s">
         <v>560</v>
       </c>
-      <c r="D440" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="441" spans="1:3">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -8866,12 +7030,8 @@
       <c r="C441" t="s">
         <v>561</v>
       </c>
-      <c r="D441" t="str">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="442" spans="1:3">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -8881,12 +7041,8 @@
       <c r="C442" t="s">
         <v>562</v>
       </c>
-      <c r="D442" t="str">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="443" spans="1:3">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -8896,12 +7052,8 @@
       <c r="C443" t="s">
         <v>563</v>
       </c>
-      <c r="D443" t="str">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="444" spans="1:3">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -8911,12 +7063,8 @@
       <c r="C444" t="s">
         <v>564</v>
       </c>
-      <c r="D444" t="str">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="445" spans="1:3">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -8926,12 +7074,8 @@
       <c r="C445" t="s">
         <v>565</v>
       </c>
-      <c r="D445" t="str">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="446" spans="1:3">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -8941,12 +7085,8 @@
       <c r="C446" t="s">
         <v>566</v>
       </c>
-      <c r="D446" t="str">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="447" spans="1:3">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -8956,12 +7096,8 @@
       <c r="C447" t="s">
         <v>567</v>
       </c>
-      <c r="D447" t="str">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="448" spans="1:3">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -8971,12 +7107,8 @@
       <c r="C448" t="s">
         <v>568</v>
       </c>
-      <c r="D448" t="str">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="449" spans="1:3">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -8986,12 +7118,8 @@
       <c r="C449" t="s">
         <v>569</v>
       </c>
-      <c r="D449" t="str">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="450" spans="1:3">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -9001,12 +7129,8 @@
       <c r="C450" t="s">
         <v>570</v>
       </c>
-      <c r="D450" t="str">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="451" spans="1:3">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -9016,12 +7140,8 @@
       <c r="C451" t="s">
         <v>571</v>
       </c>
-      <c r="D451" t="str">
-        <f t="shared" ref="D451:D481" si="7">MID(B451,6,2)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="452" spans="1:3">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -9031,12 +7151,8 @@
       <c r="C452" t="s">
         <v>572</v>
       </c>
-      <c r="D452" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="453" spans="1:3">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -9046,12 +7162,8 @@
       <c r="C453" t="s">
         <v>573</v>
       </c>
-      <c r="D453" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="454" spans="1:3">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -9061,12 +7173,8 @@
       <c r="C454" t="s">
         <v>574</v>
       </c>
-      <c r="D454" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="455" spans="1:3">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -9076,12 +7184,8 @@
       <c r="C455" t="s">
         <v>575</v>
       </c>
-      <c r="D455" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="456" spans="1:3">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -9091,12 +7195,8 @@
       <c r="C456" t="s">
         <v>576</v>
       </c>
-      <c r="D456" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="457" spans="1:3">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -9106,12 +7206,8 @@
       <c r="C457" t="s">
         <v>577</v>
       </c>
-      <c r="D457" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="458" spans="1:3">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -9121,12 +7217,8 @@
       <c r="C458" t="s">
         <v>578</v>
       </c>
-      <c r="D458" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="459" spans="1:3">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -9136,12 +7228,8 @@
       <c r="C459" t="s">
         <v>579</v>
       </c>
-      <c r="D459" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="460" spans="1:3">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -9151,12 +7239,8 @@
       <c r="C460" t="s">
         <v>580</v>
       </c>
-      <c r="D460" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="461" spans="1:3">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -9166,12 +7250,8 @@
       <c r="C461" t="s">
         <v>581</v>
       </c>
-      <c r="D461" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="462" spans="1:3">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -9181,12 +7261,8 @@
       <c r="C462" t="s">
         <v>582</v>
       </c>
-      <c r="D462" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="463" spans="1:3">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -9196,12 +7272,8 @@
       <c r="C463" t="s">
         <v>583</v>
       </c>
-      <c r="D463" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="464" spans="1:3">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -9211,12 +7283,8 @@
       <c r="C464" t="s">
         <v>584</v>
       </c>
-      <c r="D464" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="465" spans="1:3">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -9226,12 +7294,8 @@
       <c r="C465" t="s">
         <v>585</v>
       </c>
-      <c r="D465" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="466" spans="1:3">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -9241,12 +7305,8 @@
       <c r="C466" t="s">
         <v>586</v>
       </c>
-      <c r="D466" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="467" spans="1:3">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -9256,12 +7316,8 @@
       <c r="C467" t="s">
         <v>587</v>
       </c>
-      <c r="D467" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="468" spans="1:3">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -9271,12 +7327,8 @@
       <c r="C468" t="s">
         <v>588</v>
       </c>
-      <c r="D468" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="469" spans="1:3">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -9286,12 +7338,8 @@
       <c r="C469" t="s">
         <v>589</v>
       </c>
-      <c r="D469" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="470" spans="1:3">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -9301,12 +7349,8 @@
       <c r="C470" t="s">
         <v>590</v>
       </c>
-      <c r="D470" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="471" spans="1:3">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -9316,12 +7360,8 @@
       <c r="C471" t="s">
         <v>591</v>
       </c>
-      <c r="D471" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="472" spans="1:3">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -9331,12 +7371,8 @@
       <c r="C472" t="s">
         <v>592</v>
       </c>
-      <c r="D472" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="473" spans="1:3">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -9346,12 +7382,8 @@
       <c r="C473" t="s">
         <v>593</v>
       </c>
-      <c r="D473" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="474" spans="1:3">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -9361,12 +7393,8 @@
       <c r="C474" t="s">
         <v>594</v>
       </c>
-      <c r="D474" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="475" spans="1:3">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -9376,12 +7404,8 @@
       <c r="C475" t="s">
         <v>595</v>
       </c>
-      <c r="D475" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="476" spans="1:3">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -9391,12 +7415,8 @@
       <c r="C476" t="s">
         <v>596</v>
       </c>
-      <c r="D476" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="477" spans="1:3">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -9406,12 +7426,8 @@
       <c r="C477" t="s">
         <v>597</v>
       </c>
-      <c r="D477" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="478" spans="1:3">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -9421,12 +7437,8 @@
       <c r="C478" t="s">
         <v>598</v>
       </c>
-      <c r="D478" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="479" spans="1:3">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -9436,12 +7448,8 @@
       <c r="C479" t="s">
         <v>599</v>
       </c>
-      <c r="D479" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="480" spans="1:3">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -9451,12 +7459,8 @@
       <c r="C480" t="s">
         <v>600</v>
       </c>
-      <c r="D480" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="481" spans="1:3">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -9465,10 +7469,6 @@
       </c>
       <c r="C481" t="s">
         <v>601</v>
-      </c>
-      <c r="D481" t="str">
-        <f t="shared" si="7"/>
-        <v>12</v>
       </c>
     </row>
   </sheetData>
